--- a/xlsx/Piaggio_intext.xlsx
+++ b/xlsx/Piaggio_intext.xlsx
@@ -29,13 +29,13 @@
     <t>比雅久航太</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Piaggio</t>
+    <t>政策_政策_混合动力车辆_Piaggio</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E9%9B%85%E4%B9%85_(%E5%8F%B0%E7%81%A3)</t>
   </si>
   <si>
-    <t>比雅久 (台灣)</t>
+    <t>比雅久 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%96%A9</t>
   </si>
   <si>
-    <t>比薩</t>
+    <t>比萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%AC%E6%B3%B0%E4%BB%A3%E6%8B%89</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Aprilia</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/USD</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>機車</t>
+    <t>机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E9%9B%85%E7%89%B9</t>
   </si>
   <si>
-    <t>飛雅特</t>
+    <t>飞雅特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA</t>
   </si>
   <si>
-    <t>輪</t>
+    <t>轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%B0%E5%BD%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>全地形車</t>
+    <t>全地形车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gilera</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E5%99%B4%E5%B0%84%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>燃料噴射裝置</t>
+    <t>燃料喷射装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E9%9B%85%E4%B9%85</t>
